--- a/data/xlsx/2021-23.0.xlsx
+++ b/data/xlsx/2021-23.0.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dnanto/GitHub/broomball/data/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CAACB0E-76FB-B346-AE15-D204663F9261}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C630CBE9-E137-5643-8276-A5E5A6C528CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1380" yWindow="2380" windowWidth="27240" windowHeight="16440" activeTab="4" xr2:uid="{BBDAC702-0F94-114E-BCE3-E4B310FF17C7}"/>
+    <workbookView xWindow="1380" yWindow="2380" windowWidth="27240" windowHeight="16440" xr2:uid="{BBDAC702-0F94-114E-BCE3-E4B310FF17C7}"/>
   </bookViews>
   <sheets>
     <sheet name="team" sheetId="1" r:id="rId1"/>
@@ -41,235 +41,235 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="77">
   <si>
+    <t>color</t>
+  </si>
+  <si>
+    <t>captain</t>
+  </si>
+  <si>
+    <t>co-captain</t>
+  </si>
+  <si>
+    <t>black</t>
+  </si>
+  <si>
+    <t>Aaron Bill</t>
+  </si>
+  <si>
+    <t>Scott Baker</t>
+  </si>
+  <si>
+    <t>white</t>
+  </si>
+  <si>
+    <t>Lindsey Getches</t>
+  </si>
+  <si>
+    <t>Spencer Langrock</t>
+  </si>
+  <si>
+    <t>Patrick Joyce</t>
+  </si>
+  <si>
+    <t>Kasey Kirby</t>
+  </si>
+  <si>
+    <t>Ryan Mullady</t>
+  </si>
+  <si>
+    <t>William Yurasko</t>
+  </si>
+  <si>
+    <t>Tim Kamphaus</t>
+  </si>
+  <si>
+    <t>David Horner</t>
+  </si>
+  <si>
+    <t>Jay Shalatay</t>
+  </si>
+  <si>
+    <t>Will Eger</t>
+  </si>
+  <si>
+    <t>Brad Sarnell</t>
+  </si>
+  <si>
+    <t>Dave Laux</t>
+  </si>
+  <si>
+    <t>Jason Gubi</t>
+  </si>
+  <si>
+    <t>Nathan Centofanti</t>
+  </si>
+  <si>
+    <t>Sean Greeney</t>
+  </si>
+  <si>
+    <t>Brett Schneider</t>
+  </si>
+  <si>
+    <t>Alex Fletcher</t>
+  </si>
+  <si>
+    <t>Tom Zohlen</t>
+  </si>
+  <si>
+    <t>Ben Overmann</t>
+  </si>
+  <si>
+    <t>Tim Stoutzenberger</t>
+  </si>
+  <si>
+    <t>AJ Bolyard</t>
+  </si>
+  <si>
+    <t>Brett Schneider (Bort)</t>
+  </si>
+  <si>
+    <t>Art Chambers</t>
+  </si>
+  <si>
+    <t>Aaron Hopkins</t>
+  </si>
+  <si>
+    <t>Will Weiler</t>
+  </si>
+  <si>
+    <t>John Lemen</t>
+  </si>
+  <si>
+    <t>period</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>shooter</t>
+  </si>
+  <si>
+    <t>assist1</t>
+  </si>
+  <si>
+    <t>assist2</t>
+  </si>
+  <si>
+    <t>goalie</t>
+  </si>
+  <si>
+    <t>EV</t>
+  </si>
+  <si>
+    <t>PP</t>
+  </si>
+  <si>
+    <t>SH</t>
+  </si>
+  <si>
+    <t>EN</t>
+  </si>
+  <si>
+    <t>04:24</t>
+  </si>
+  <si>
+    <t>Jesse Lehman</t>
+  </si>
+  <si>
+    <t>16:12</t>
+  </si>
+  <si>
+    <t>05:29</t>
+  </si>
+  <si>
+    <t>04:08</t>
+  </si>
+  <si>
+    <t>00:18.9</t>
+  </si>
+  <si>
+    <t>00:10.2</t>
+  </si>
+  <si>
+    <t>match</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>away</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>rink</t>
+  </si>
+  <si>
+    <t>Tucker Road Ice Rink</t>
+  </si>
+  <si>
+    <t>2021-10-26</t>
+  </si>
+  <si>
+    <t>2021-11-09</t>
+  </si>
+  <si>
+    <t>14:50</t>
+  </si>
+  <si>
+    <t>11:20</t>
+  </si>
+  <si>
+    <t>08:42</t>
+  </si>
+  <si>
+    <t>17:30</t>
+  </si>
+  <si>
+    <t>15:22</t>
+  </si>
+  <si>
+    <t>07:16</t>
+  </si>
+  <si>
+    <t>05:59</t>
+  </si>
+  <si>
+    <t>point</t>
+  </si>
+  <si>
+    <t>16:39</t>
+  </si>
+  <si>
+    <t>15:31</t>
+  </si>
+  <si>
+    <t>02:10</t>
+  </si>
+  <si>
+    <t>17:20</t>
+  </si>
+  <si>
+    <t>08:28</t>
+  </si>
+  <si>
+    <t>04:01</t>
+  </si>
+  <si>
+    <t>2021-11-16</t>
+  </si>
+  <si>
+    <t>Team Dark</t>
+  </si>
+  <si>
+    <t>Team Light</t>
+  </si>
+  <si>
+    <t>Dan Negron</t>
+  </si>
+  <si>
     <t>team</t>
-  </si>
-  <si>
-    <t>color</t>
-  </si>
-  <si>
-    <t>captain</t>
-  </si>
-  <si>
-    <t>co-captain</t>
-  </si>
-  <si>
-    <t>black</t>
-  </si>
-  <si>
-    <t>Aaron Bill</t>
-  </si>
-  <si>
-    <t>Scott Baker</t>
-  </si>
-  <si>
-    <t>white</t>
-  </si>
-  <si>
-    <t>Lindsey Getches</t>
-  </si>
-  <si>
-    <t>Spencer Langrock</t>
-  </si>
-  <si>
-    <t>Patrick Joyce</t>
-  </si>
-  <si>
-    <t>Kasey Kirby</t>
-  </si>
-  <si>
-    <t>Ryan Mullady</t>
-  </si>
-  <si>
-    <t>William Yurasko</t>
-  </si>
-  <si>
-    <t>Tim Kamphaus</t>
-  </si>
-  <si>
-    <t>David Horner</t>
-  </si>
-  <si>
-    <t>Jay Shalatay</t>
-  </si>
-  <si>
-    <t>Will Eger</t>
-  </si>
-  <si>
-    <t>Brad Sarnell</t>
-  </si>
-  <si>
-    <t>Dave Laux</t>
-  </si>
-  <si>
-    <t>Jason Gubi</t>
-  </si>
-  <si>
-    <t>Nathan Centofanti</t>
-  </si>
-  <si>
-    <t>Sean Greeney</t>
-  </si>
-  <si>
-    <t>Brett Schneider</t>
-  </si>
-  <si>
-    <t>Alex Fletcher</t>
-  </si>
-  <si>
-    <t>Tom Zohlen</t>
-  </si>
-  <si>
-    <t>Ben Overmann</t>
-  </si>
-  <si>
-    <t>Tim Stoutzenberger</t>
-  </si>
-  <si>
-    <t>AJ Bolyard</t>
-  </si>
-  <si>
-    <t>Brett Schneider (Bort)</t>
-  </si>
-  <si>
-    <t>Art Chambers</t>
-  </si>
-  <si>
-    <t>Aaron Hopkins</t>
-  </si>
-  <si>
-    <t>Will Weiler</t>
-  </si>
-  <si>
-    <t>John Lemen</t>
-  </si>
-  <si>
-    <t>period</t>
-  </si>
-  <si>
-    <t>time</t>
-  </si>
-  <si>
-    <t>shooter</t>
-  </si>
-  <si>
-    <t>assist1</t>
-  </si>
-  <si>
-    <t>assist2</t>
-  </si>
-  <si>
-    <t>goalie</t>
-  </si>
-  <si>
-    <t>EV</t>
-  </si>
-  <si>
-    <t>PP</t>
-  </si>
-  <si>
-    <t>SH</t>
-  </si>
-  <si>
-    <t>EN</t>
-  </si>
-  <si>
-    <t>04:24</t>
-  </si>
-  <si>
-    <t>Jesse Lehman</t>
-  </si>
-  <si>
-    <t>16:12</t>
-  </si>
-  <si>
-    <t>05:29</t>
-  </si>
-  <si>
-    <t>04:08</t>
-  </si>
-  <si>
-    <t>00:18.9</t>
-  </si>
-  <si>
-    <t>00:10.2</t>
-  </si>
-  <si>
-    <t>match</t>
-  </si>
-  <si>
-    <t>home</t>
-  </si>
-  <si>
-    <t>away</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>rink</t>
-  </si>
-  <si>
-    <t>Tucker Road Ice Rink</t>
-  </si>
-  <si>
-    <t>2021-10-26</t>
-  </si>
-  <si>
-    <t>2021-11-09</t>
-  </si>
-  <si>
-    <t>14:50</t>
-  </si>
-  <si>
-    <t>11:20</t>
-  </si>
-  <si>
-    <t>08:42</t>
-  </si>
-  <si>
-    <t>17:30</t>
-  </si>
-  <si>
-    <t>15:22</t>
-  </si>
-  <si>
-    <t>07:16</t>
-  </si>
-  <si>
-    <t>05:59</t>
-  </si>
-  <si>
-    <t>point</t>
-  </si>
-  <si>
-    <t>16:39</t>
-  </si>
-  <si>
-    <t>15:31</t>
-  </si>
-  <si>
-    <t>02:10</t>
-  </si>
-  <si>
-    <t>17:20</t>
-  </si>
-  <si>
-    <t>08:28</t>
-  </si>
-  <si>
-    <t>04:01</t>
-  </si>
-  <si>
-    <t>2021-11-16</t>
-  </si>
-  <si>
-    <t>Team Dark</t>
-  </si>
-  <si>
-    <t>Team Light</t>
-  </si>
-  <si>
-    <t>Dan Negron</t>
   </si>
 </sst>
 </file>
@@ -624,7 +624,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC366C91-63F5-0B40-8156-DE90B2E3A0D5}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -636,44 +636,44 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
         <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -697,130 +697,130 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -851,100 +851,100 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="L4" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" t="s">
         <v>44</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" t="s">
-        <v>45</v>
-      </c>
       <c r="H5" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I5" s="1">
         <v>1</v>
@@ -961,25 +961,25 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6" s="1">
         <v>2</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I6" s="1">
         <v>1</v>
@@ -996,22 +996,22 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7" s="1">
         <v>2</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I7" s="1">
         <v>1</v>
@@ -1028,28 +1028,28 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C8" s="1">
         <v>2</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I8" s="1">
         <v>1</v>
@@ -1066,22 +1066,22 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C9" s="1">
         <v>2</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I9" s="1">
         <v>1</v>
@@ -1098,25 +1098,25 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C10" s="1">
         <v>2</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I10" s="1">
         <v>1</v>
@@ -1160,97 +1160,97 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="L4" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I5" s="1">
         <v>1</v>
@@ -1267,25 +1267,25 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6" s="1">
         <v>1</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I6" s="1">
         <v>1</v>
@@ -1302,28 +1302,28 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7" s="1">
         <v>1</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I7" s="1">
         <v>1</v>
@@ -1340,25 +1340,25 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C8" s="1">
         <v>2</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I8" s="1">
         <v>1</v>
@@ -1375,25 +1375,25 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C9" s="1">
         <v>2</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I9" s="1">
         <v>1</v>
@@ -1410,25 +1410,25 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C10" s="1">
         <v>2</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I10" s="1">
         <v>1</v>
@@ -1445,28 +1445,28 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C11" s="1">
         <v>2</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I11" s="1">
         <v>1</v>
@@ -1490,7 +1490,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0EAD7DD-A4A6-1642-8D3F-D4AFADEA77A1}">
   <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1511,94 +1511,94 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="L4" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="1">
-        <v>1</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>67</v>
-      </c>
       <c r="E5" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I5" s="1">
         <v>1</v>
@@ -1615,28 +1615,28 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6" s="1">
         <v>1</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="I6" s="1">
         <v>1</v>
@@ -1653,25 +1653,25 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="1">
-        <v>1</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="H7" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I7" s="1">
         <v>1</v>
@@ -1688,25 +1688,25 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C8" s="1">
         <v>2</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I8" s="1">
         <v>1</v>
@@ -1723,22 +1723,22 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C9" s="1">
         <v>2</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I9" s="1">
         <v>1</v>
@@ -1755,25 +1755,25 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C10" s="1">
         <v>2</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I10" s="1">
         <v>1</v>

--- a/data/xlsx/2021-23.0.xlsx
+++ b/data/xlsx/2021-23.0.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dnanto/GitHub/broomball/data/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C630CBE9-E137-5643-8276-A5E5A6C528CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{449DA2D4-5B87-8947-8217-C713ECF3BF28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1380" yWindow="2380" windowWidth="27240" windowHeight="16440" xr2:uid="{BBDAC702-0F94-114E-BCE3-E4B310FF17C7}"/>
+    <workbookView xWindow="1380" yWindow="2380" windowWidth="27240" windowHeight="16440" activeTab="1" xr2:uid="{BBDAC702-0F94-114E-BCE3-E4B310FF17C7}"/>
   </bookViews>
   <sheets>
     <sheet name="team" sheetId="1" r:id="rId1"/>
@@ -86,9 +86,6 @@
     <t>David Horner</t>
   </si>
   <si>
-    <t>Jay Shalatay</t>
-  </si>
-  <si>
     <t>Will Eger</t>
   </si>
   <si>
@@ -270,6 +267,9 @@
   </si>
   <si>
     <t>team</t>
+  </si>
+  <si>
+    <t>Jay Shalaty</t>
   </si>
 </sst>
 </file>
@@ -326,9 +326,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -366,7 +366,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -472,7 +472,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -614,7 +614,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -624,7 +624,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC366C91-63F5-0B40-8156-DE90B2E3A0D5}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -636,7 +636,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -650,7 +650,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -664,7 +664,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
@@ -685,7 +685,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91014362-D301-764B-81DC-9DBA68C6353F}">
   <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -705,90 +707,90 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>75</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -796,34 +798,37 @@
         <v>5</v>
       </c>
       <c r="B13" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B16" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:B16">
+    <sortCondition ref="B2:B16"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -851,24 +856,24 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
@@ -877,53 +882,53 @@
         <v>6</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="L4" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>3</v>
@@ -932,19 +937,19 @@
         <v>1</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I5" s="1">
         <v>1</v>
@@ -961,7 +966,7 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>6</v>
@@ -970,13 +975,13 @@
         <v>2</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>9</v>
@@ -996,7 +1001,7 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>6</v>
@@ -1005,10 +1010,10 @@
         <v>2</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>9</v>
@@ -1028,7 +1033,7 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>3</v>
@@ -1037,19 +1042,19 @@
         <v>2</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I8" s="1">
         <v>1</v>
@@ -1066,7 +1071,7 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>3</v>
@@ -1075,13 +1080,13 @@
         <v>2</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>10</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I9" s="1">
         <v>1</v>
@@ -1098,7 +1103,7 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>3</v>
@@ -1107,7 +1112,7 @@
         <v>2</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>11</v>
@@ -1116,7 +1121,7 @@
         <v>10</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I10" s="1">
         <v>1</v>
@@ -1160,24 +1165,24 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
@@ -1186,53 +1191,53 @@
         <v>6</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="L4" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>6</v>
@@ -1241,13 +1246,13 @@
         <v>1</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>9</v>
@@ -1267,7 +1272,7 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>6</v>
@@ -1276,13 +1281,13 @@
         <v>1</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>9</v>
@@ -1302,7 +1307,7 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>6</v>
@@ -1311,16 +1316,16 @@
         <v>1</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>9</v>
@@ -1340,7 +1345,7 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>6</v>
@@ -1349,13 +1354,13 @@
         <v>2</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>9</v>
@@ -1375,7 +1380,7 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>6</v>
@@ -1384,10 +1389,10 @@
         <v>2</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>7</v>
@@ -1410,7 +1415,7 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>6</v>
@@ -1419,13 +1424,13 @@
         <v>2</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>9</v>
@@ -1445,7 +1450,7 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>6</v>
@@ -1454,16 +1459,16 @@
         <v>2</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>9</v>
@@ -1511,24 +1516,24 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
@@ -1537,53 +1542,53 @@
         <v>6</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="L4" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>3</v>
@@ -1592,13 +1597,13 @@
         <v>1</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I5" s="1">
         <v>1</v>
@@ -1615,7 +1620,7 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>6</v>
@@ -1624,16 +1629,16 @@
         <v>1</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>9</v>
@@ -1653,7 +1658,7 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>6</v>
@@ -1662,10 +1667,10 @@
         <v>1</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>7</v>
@@ -1688,7 +1693,7 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>6</v>
@@ -1697,13 +1702,13 @@
         <v>2</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>9</v>
@@ -1723,7 +1728,7 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>6</v>
@@ -1732,10 +1737,10 @@
         <v>2</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>9</v>
@@ -1755,7 +1760,7 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>6</v>
@@ -1764,10 +1769,10 @@
         <v>2</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>7</v>

--- a/data/xlsx/2021-23.0.xlsx
+++ b/data/xlsx/2021-23.0.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dnanto/GitHub/broomball/data/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{449DA2D4-5B87-8947-8217-C713ECF3BF28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD5D5364-14EA-8E46-8E26-2B9D7EC469A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1380" yWindow="2380" windowWidth="27240" windowHeight="16440" activeTab="1" xr2:uid="{BBDAC702-0F94-114E-BCE3-E4B310FF17C7}"/>
   </bookViews>
@@ -685,9 +685,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91014362-D301-764B-81DC-9DBA68C6353F}">
   <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
